--- a/DAVID/E2F.DAVID_toJoin.xlsx
+++ b/DAVID/E2F.DAVID_toJoin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRG_GBIRG_OntologyStudy\DAVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84457049-C77E-452A-9A59-273C6833E273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEC9C62-191D-40B8-B4BC-D83EF232C462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="E2F.DAVID" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="137">
   <si>
     <t>Category</t>
   </si>
@@ -416,6 +416,18 @@
   </si>
   <si>
     <t>ENSG00000164045, ENSG00000166483, ENSG00000101224, ENSG00000149554, ENSG00000170312</t>
+  </si>
+  <si>
+    <t>h_p53Pathway:p53 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>ENSG00000132646, ENSG00000105173, ENSG00000135446, ENSG00000141510, ENSG00000124762</t>
+  </si>
+  <si>
+    <t>h_ptc1Pathway:Sonic Hedgehog (SHH) Receptor Ptc1 Regulates cell cycle</t>
+  </si>
+  <si>
+    <t>ENSG00000164045, ENSG00000101224, ENSG00000082898, ENSG00000170312</t>
   </si>
   <si>
     <t>Hit</t>
@@ -1260,14 +1272,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1311,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1355,7 +1367,7 @@
         <v>7.9485468954251705E-6</v>
       </c>
       <c r="N2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1399,7 +1411,7 @@
         <v>7.9485468954251705E-6</v>
       </c>
       <c r="N3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1443,7 +1455,7 @@
         <v>2.8548365165701E-5</v>
       </c>
       <c r="N4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1487,7 +1499,7 @@
         <v>2.9422275075439599E-3</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1531,7 +1543,7 @@
         <v>4.1448278090654798E-3</v>
       </c>
       <c r="N6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1575,7 +1587,7 @@
         <v>1.27941505913236E-2</v>
       </c>
       <c r="N7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1619,7 +1631,7 @@
         <v>4.0486236671200201E-2</v>
       </c>
       <c r="N8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1663,1288 +1675,1288 @@
         <v>0.109203490157121</v>
       </c>
       <c r="N9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>2.30424636179742E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10">
+        <v>58</v>
+      </c>
+      <c r="H10">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="D10">
-        <v>21.5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4.8037429593791303E-47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>189</v>
-      </c>
-      <c r="H10">
-        <v>155</v>
-      </c>
       <c r="I10">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J10">
-        <v>24.647755589690998</v>
-      </c>
-      <c r="K10" s="1">
-        <v>4.8373691600947903E-44</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.8373691600947903E-44</v>
-      </c>
-      <c r="M10" s="1">
-        <v>4.3185649204818399E-42</v>
+        <v>8.2403651115618608</v>
+      </c>
+      <c r="K10">
+        <v>0.14715414779987401</v>
+      </c>
+      <c r="L10">
+        <v>1.7409861400247199E-2</v>
+      </c>
+      <c r="M10">
+        <v>1.4849587664916699</v>
       </c>
       <c r="N10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>13.5</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.8936965952797501E-28</v>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>5.5295012521163703E-3</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="G11">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="H11">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>16792</v>
+        <v>1625</v>
       </c>
       <c r="J11">
-        <v>23.518207282913099</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1.9069524714467099E-25</v>
-      </c>
-      <c r="L11" s="1">
-        <v>9.5347623572335495E-26</v>
-      </c>
-      <c r="M11" s="1">
-        <v>8.5121661957824807E-24</v>
+        <v>10.188087774294599</v>
+      </c>
+      <c r="K11">
+        <v>0.317910461666845</v>
+      </c>
+      <c r="L11">
+        <v>3.4182371376719402E-2</v>
+      </c>
+      <c r="M11">
+        <v>2.9155552056613598</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>21.5</v>
       </c>
       <c r="E12" s="1">
-        <v>6.6983798785127398E-28</v>
+        <v>4.8037429593791303E-47</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G12">
         <v>189</v>
       </c>
       <c r="H12">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="I12">
         <v>16792</v>
       </c>
       <c r="J12">
-        <v>10.153892668178299</v>
+        <v>24.647755589690998</v>
       </c>
       <c r="K12" s="1">
-        <v>6.74526853766233E-25</v>
+        <v>4.8373691600947903E-44</v>
       </c>
       <c r="L12" s="1">
-        <v>2.2484228458874398E-25</v>
+        <v>4.8373691600947903E-44</v>
       </c>
       <c r="M12" s="1">
-        <v>2.0072811702609799E-23</v>
+        <v>4.3185649204818399E-42</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="E13" s="1">
-        <v>1.58307751425049E-25</v>
+        <v>1.8936965952797501E-28</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13">
         <v>189</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="I13">
         <v>16792</v>
       </c>
       <c r="J13">
-        <v>49.976190476190403</v>
+        <v>23.518207282913099</v>
       </c>
       <c r="K13" s="1">
-        <v>1.5941590568502501E-22</v>
+        <v>1.9069524714467099E-25</v>
       </c>
       <c r="L13" s="1">
-        <v>3.9853976421256199E-23</v>
+        <v>9.5347623572335495E-26</v>
       </c>
       <c r="M13" s="1">
-        <v>3.5579667132779899E-21</v>
+        <v>8.5121661957824807E-24</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E14" s="1">
-        <v>6.0947066264160002E-21</v>
+        <v>6.6983798785127398E-28</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>189</v>
       </c>
       <c r="H14">
-        <v>103</v>
+        <v>350</v>
       </c>
       <c r="I14">
         <v>16792</v>
       </c>
       <c r="J14">
-        <v>18.976935326449802</v>
+        <v>10.153892668178299</v>
       </c>
       <c r="K14" s="1">
-        <v>6.1373695728009104E-18</v>
+        <v>6.74526853766233E-25</v>
       </c>
       <c r="L14" s="1">
-        <v>1.22747391456018E-18</v>
+        <v>2.2484228458874398E-25</v>
       </c>
       <c r="M14" s="1">
-        <v>1.0958282514295899E-16</v>
+        <v>2.0072811702609799E-23</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1">
-        <v>4.8251882455723501E-17</v>
+        <v>1.58307751425049E-25</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G15">
         <v>189</v>
       </c>
       <c r="H15">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="I15">
         <v>16792</v>
       </c>
       <c r="J15">
-        <v>9.3145587984297595</v>
+        <v>49.976190476190403</v>
       </c>
       <c r="K15" s="1">
-        <v>4.8589645632913497E-14</v>
+        <v>1.5941590568502501E-22</v>
       </c>
       <c r="L15" s="1">
-        <v>8.09827427215226E-15</v>
+        <v>3.9853976421256199E-23</v>
       </c>
       <c r="M15" s="1">
-        <v>7.2297403879492399E-13</v>
+        <v>3.5579667132779899E-21</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1">
-        <v>1.5743556241521201E-16</v>
+        <v>6.0947066264160002E-21</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>189</v>
       </c>
       <c r="H16">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="I16">
         <v>16792</v>
       </c>
       <c r="J16">
-        <v>9.4517617921873196</v>
+        <v>18.976935326449802</v>
       </c>
       <c r="K16" s="1">
-        <v>1.11799458579753E-13</v>
+        <v>6.1373695728009104E-18</v>
       </c>
       <c r="L16" s="1">
-        <v>2.26482301931598E-14</v>
+        <v>1.22747391456018E-18</v>
       </c>
       <c r="M16" s="1">
-        <v>2.0219224373039401E-12</v>
+        <v>1.0958282514295899E-16</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17">
+        <v>26</v>
+      </c>
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="D17">
-        <v>6.5</v>
-      </c>
       <c r="E17" s="1">
-        <v>4.9747748053878303E-16</v>
+        <v>4.8251882455723501E-17</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G17">
         <v>189</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="I17">
         <v>16792</v>
       </c>
       <c r="J17">
-        <v>36.093915343915299</v>
+        <v>9.3145587984297595</v>
       </c>
       <c r="K17" s="1">
-        <v>4.47197834319013E-13</v>
+        <v>4.8589645632913497E-14</v>
       </c>
       <c r="L17" s="1">
-        <v>6.2619977862819304E-14</v>
+        <v>8.09827427215226E-15</v>
       </c>
       <c r="M17" s="1">
-        <v>5.5904031875545696E-12</v>
+        <v>7.2297403879492399E-13</v>
       </c>
       <c r="N17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="E18" s="1">
-        <v>5.6095273975766397E-16</v>
+        <v>1.5743556241521201E-16</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G18">
         <v>189</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="I18">
         <v>16792</v>
       </c>
       <c r="J18">
-        <v>44.423280423280403</v>
+        <v>9.4517617921873196</v>
       </c>
       <c r="K18" s="1">
-        <v>5.5899729289876602E-13</v>
+        <v>1.11799458579753E-13</v>
       </c>
       <c r="L18" s="1">
-        <v>6.2764378770663004E-14</v>
+        <v>2.26482301931598E-14</v>
       </c>
       <c r="M18" s="1">
-        <v>5.6032945893571096E-12</v>
+        <v>2.0219224373039401E-12</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="E19" s="1">
-        <v>2.4221545074608501E-15</v>
+        <v>4.9747748053878303E-16</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G19">
         <v>189</v>
       </c>
       <c r="H19">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I19">
         <v>16792</v>
       </c>
       <c r="J19">
-        <v>13.613585936166499</v>
+        <v>36.093915343915299</v>
       </c>
       <c r="K19" s="1">
-        <v>2.4595880887545702E-12</v>
+        <v>4.47197834319013E-13</v>
       </c>
       <c r="L19" s="1">
-        <v>2.43910958901308E-13</v>
+        <v>6.2619977862819304E-14</v>
       </c>
       <c r="M19" s="1">
-        <v>2.1775169022072999E-11</v>
+        <v>5.5904031875545696E-12</v>
       </c>
       <c r="N19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1">
-        <v>1.41926285525038E-58</v>
+        <v>5.6095273975766397E-16</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="G20">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20">
-        <v>2784</v>
+        <v>24</v>
       </c>
       <c r="I20">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J20">
-        <v>4.3868327616296501</v>
+        <v>44.423280423280403</v>
       </c>
       <c r="K20" s="1">
-        <v>3.8462023377285401E-56</v>
+        <v>5.5899729289876602E-13</v>
       </c>
       <c r="L20" s="1">
-        <v>3.8462023377285401E-56</v>
+        <v>6.2764378770663004E-14</v>
       </c>
       <c r="M20" s="1">
-        <v>3.1223782815508399E-54</v>
+        <v>5.6032945893571096E-12</v>
       </c>
       <c r="N20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>145</v>
-      </c>
       <c r="D21">
-        <v>72.5</v>
+        <v>9.5</v>
       </c>
       <c r="E21" s="1">
-        <v>1.32943204579735E-39</v>
+        <v>2.4221545074608501E-15</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G21">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H21">
-        <v>5415</v>
+        <v>124</v>
       </c>
       <c r="I21">
-        <v>18224</v>
+        <v>16792</v>
       </c>
       <c r="J21">
-        <v>2.5549351471818098</v>
+        <v>13.613585936166499</v>
       </c>
       <c r="K21" s="1">
-        <v>3.6027608441108302E-37</v>
+        <v>2.4595880887545702E-12</v>
       </c>
       <c r="L21" s="1">
-        <v>1.8013804220554101E-37</v>
+        <v>2.43910958901308E-13</v>
       </c>
       <c r="M21" s="1">
-        <v>1.4623752503770901E-35</v>
+        <v>2.1775169022072999E-11</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1">
-        <v>9.2679243294301898E-17</v>
+        <v>1.41926285525038E-58</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G22">
         <v>191</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>2784</v>
       </c>
       <c r="I22">
         <v>18224</v>
       </c>
       <c r="J22">
-        <v>14.6790173177607</v>
+        <v>4.3868327616296501</v>
       </c>
       <c r="K22" s="1">
-        <v>3.0087043967341698E-14</v>
+        <v>3.8462023377285401E-56</v>
       </c>
       <c r="L22" s="1">
-        <v>8.3720249775852792E-15</v>
+        <v>3.8462023377285401E-56</v>
       </c>
       <c r="M22" s="1">
-        <v>6.7964778415821403E-13</v>
+        <v>3.1223782815508399E-54</v>
       </c>
       <c r="N22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>72.5</v>
       </c>
       <c r="E23" s="1">
-        <v>1.86252329279675E-14</v>
+        <v>1.32943204579735E-39</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G23">
         <v>191</v>
       </c>
       <c r="H23">
-        <v>57</v>
+        <v>5415</v>
       </c>
       <c r="I23">
         <v>18224</v>
       </c>
       <c r="J23">
-        <v>23.434922384495199</v>
+        <v>2.5549351471818098</v>
       </c>
       <c r="K23" s="1">
-        <v>5.0546233865134103E-12</v>
+        <v>3.6027608441108302E-37</v>
       </c>
       <c r="L23" s="1">
-        <v>1.2618595308697899E-12</v>
+        <v>1.8013804220554101E-37</v>
       </c>
       <c r="M23" s="1">
-        <v>1.02438781103821E-10</v>
+        <v>1.4623752503770901E-35</v>
       </c>
       <c r="N23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1">
-        <v>4.2653027217025002E-13</v>
+        <v>9.2679243294301898E-17</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="G24">
         <v>191</v>
       </c>
       <c r="H24">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="I24">
         <v>18224</v>
       </c>
       <c r="J24">
-        <v>16.080945937996301</v>
+        <v>14.6790173177607</v>
       </c>
       <c r="K24" s="1">
-        <v>1.15594422922526E-10</v>
+        <v>3.0087043967341698E-14</v>
       </c>
       <c r="L24" s="1">
-        <v>2.3117940751627499E-11</v>
+        <v>8.3720249775852792E-15</v>
       </c>
       <c r="M24" s="1">
-        <v>1.8767331975491E-9</v>
+        <v>6.7964778415821403E-13</v>
       </c>
       <c r="N24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E25" s="1">
-        <v>4.2646806236573598E-12</v>
+        <v>1.86252329279675E-14</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G25">
         <v>191</v>
       </c>
       <c r="H25">
-        <v>3315</v>
+        <v>57</v>
       </c>
       <c r="I25">
         <v>18224</v>
       </c>
       <c r="J25">
-        <v>2.18746140421533</v>
+        <v>23.434922384495199</v>
       </c>
       <c r="K25" s="1">
-        <v>1.1557336199174901E-9</v>
+        <v>5.0546233865134103E-12</v>
       </c>
       <c r="L25" s="1">
-        <v>1.92621408168524E-10</v>
+        <v>1.2618595308697899E-12</v>
       </c>
       <c r="M25" s="1">
-        <v>1.56371622867436E-8</v>
+        <v>1.02438781103821E-10</v>
       </c>
       <c r="N25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="E26" s="1">
-        <v>9.7128665189394805E-11</v>
+        <v>4.2653027217025002E-13</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G26">
         <v>191</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="I26">
         <v>18224</v>
       </c>
       <c r="J26">
-        <v>74.210587550901593</v>
+        <v>16.080945937996301</v>
       </c>
       <c r="K26" s="1">
-        <v>2.6321860691069701E-8</v>
+        <v>1.15594422922526E-10</v>
       </c>
       <c r="L26" s="1">
-        <v>3.7602668951894196E-9</v>
+        <v>2.3117940751627499E-11</v>
       </c>
       <c r="M26" s="1">
-        <v>3.0526151916666901E-7</v>
+        <v>1.8767331975491E-9</v>
       </c>
       <c r="N26" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1">
-        <v>7.6048667654734401E-10</v>
+        <v>4.2646806236573598E-12</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G27">
         <v>191</v>
       </c>
       <c r="H27">
-        <v>81</v>
+        <v>3315</v>
       </c>
       <c r="I27">
         <v>18224</v>
       </c>
       <c r="J27">
-        <v>14.1353500096955</v>
+        <v>2.18746140421533</v>
       </c>
       <c r="K27" s="1">
-        <v>2.06091867349655E-7</v>
+        <v>1.1557336199174901E-9</v>
       </c>
       <c r="L27" s="1">
-        <v>2.57614861680412E-8</v>
+        <v>1.92621408168524E-10</v>
       </c>
       <c r="M27" s="1">
-        <v>2.0913383605051899E-6</v>
+        <v>1.56371622867436E-8</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="E28" s="1">
-        <v>1.6638911107704299E-9</v>
+        <v>9.7128665189394805E-11</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G28">
         <v>191</v>
       </c>
       <c r="H28">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="I28">
         <v>18224</v>
       </c>
       <c r="J28">
-        <v>13.1604982848889</v>
+        <v>74.210587550901593</v>
       </c>
       <c r="K28" s="1">
-        <v>4.5091439659916598E-7</v>
+        <v>2.6321860691069701E-8</v>
       </c>
       <c r="L28" s="1">
-        <v>5.0101610113198597E-8</v>
+        <v>3.7602668951894196E-9</v>
       </c>
       <c r="M28" s="1">
-        <v>4.0672893818832804E-6</v>
+        <v>3.0526151916666901E-7</v>
       </c>
       <c r="N28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>15.5</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
-        <v>5.2630421429698903E-9</v>
+        <v>7.6048667654734401E-10</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G29">
         <v>191</v>
       </c>
       <c r="H29">
-        <v>857</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>18224</v>
       </c>
       <c r="J29">
-        <v>3.4513675490417599</v>
+        <v>14.1353500096955</v>
       </c>
       <c r="K29" s="1">
-        <v>1.4262833992750799E-6</v>
+        <v>2.06091867349655E-7</v>
       </c>
       <c r="L29" s="1">
-        <v>1.4262844207448399E-7</v>
+        <v>2.57614861680412E-8</v>
       </c>
       <c r="M29" s="1">
-        <v>1.15786927145337E-5</v>
+        <v>2.0913383605051899E-6</v>
       </c>
       <c r="N29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>82.5</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1">
-        <v>5.2073596280301704E-25</v>
+        <v>1.6638911107704299E-9</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="G30">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H30">
-        <v>8785</v>
+        <v>87</v>
       </c>
       <c r="I30">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J30">
-        <v>1.6775618613979399</v>
+        <v>13.1604982848889</v>
       </c>
       <c r="K30" s="1">
-        <v>1.6455256424575301E-22</v>
+        <v>4.5091439659916598E-7</v>
       </c>
       <c r="L30" s="1">
-        <v>1.6455256424575301E-22</v>
+        <v>5.0101610113198597E-8</v>
       </c>
       <c r="M30" s="1">
-        <v>1.4788901343605599E-20</v>
+        <v>4.0672893818832804E-6</v>
       </c>
       <c r="N30" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D31">
-        <v>7.5</v>
+        <v>15.5</v>
       </c>
       <c r="E31" s="1">
-        <v>6.4347141935028304E-15</v>
+        <v>5.2630421429698903E-9</v>
       </c>
       <c r="F31" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="G31">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H31">
-        <v>63</v>
+        <v>857</v>
       </c>
       <c r="I31">
-        <v>16881</v>
+        <v>18224</v>
       </c>
       <c r="J31">
-        <v>21.266061980347601</v>
+        <v>3.4513675490417599</v>
       </c>
       <c r="K31" s="1">
-        <v>2.03481675953298E-12</v>
+        <v>1.4262833992750799E-6</v>
       </c>
       <c r="L31" s="1">
-        <v>1.01668484257344E-12</v>
+        <v>1.4262844207448399E-7</v>
       </c>
       <c r="M31" s="1">
-        <v>9.1372941547740198E-11</v>
+        <v>1.15786927145337E-5</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="D32">
-        <v>27</v>
+        <v>82.5</v>
       </c>
       <c r="E32" s="1">
-        <v>1.10609541419529E-14</v>
+        <v>5.2073596280301704E-25</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>189</v>
       </c>
       <c r="H32">
-        <v>1495</v>
+        <v>8785</v>
       </c>
       <c r="I32">
         <v>16881</v>
       </c>
       <c r="J32">
-        <v>3.22618251313903</v>
+        <v>1.6775618613979399</v>
       </c>
       <c r="K32" s="1">
-        <v>3.5083047578154898E-12</v>
+        <v>1.6455256424575301E-22</v>
       </c>
       <c r="L32" s="1">
-        <v>1.1650871696190401E-12</v>
+        <v>1.6455256424575301E-22</v>
       </c>
       <c r="M32" s="1">
-        <v>1.04710365877154E-10</v>
+        <v>1.4788901343605599E-20</v>
       </c>
       <c r="N32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>27.5</v>
+        <v>7.5</v>
       </c>
       <c r="E33" s="1">
-        <v>2.8022909967018798E-13</v>
+        <v>6.4347141935028304E-15</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G33">
         <v>189</v>
       </c>
       <c r="H33">
-        <v>1674</v>
+        <v>63</v>
       </c>
       <c r="I33">
         <v>16881</v>
       </c>
       <c r="J33">
-        <v>2.93456410839923</v>
+        <v>21.266061980347601</v>
       </c>
       <c r="K33" s="1">
-        <v>8.8549612087262995E-11</v>
+        <v>2.03481675953298E-12</v>
       </c>
       <c r="L33" s="1">
-        <v>2.2138098873944901E-11</v>
+        <v>1.01668484257344E-12</v>
       </c>
       <c r="M33" s="1">
-        <v>1.9896266076583401E-9</v>
+        <v>9.1372941547740198E-11</v>
       </c>
       <c r="N33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1">
-        <v>1.6921826568576E-12</v>
+        <v>1.10609541419529E-14</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G34">
         <v>189</v>
       </c>
       <c r="H34">
-        <v>391</v>
+        <v>1495</v>
       </c>
       <c r="I34">
         <v>16881</v>
       </c>
       <c r="J34">
-        <v>5.9392684610075897</v>
+        <v>3.22618251313903</v>
       </c>
       <c r="K34" s="1">
-        <v>5.3473581118623697E-10</v>
+        <v>3.5083047578154898E-12</v>
       </c>
       <c r="L34" s="1">
-        <v>1.0050920064899099E-10</v>
+        <v>1.1650871696190401E-12</v>
       </c>
       <c r="M34" s="1">
-        <v>9.03310537478274E-9</v>
+        <v>1.04710365877154E-10</v>
       </c>
       <c r="N34" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>7.5</v>
+        <v>27.5</v>
       </c>
       <c r="E35" s="1">
-        <v>1.9084025439681801E-12</v>
+        <v>2.8022909967018798E-13</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G35">
         <v>189</v>
       </c>
       <c r="H35">
-        <v>93</v>
+        <v>1674</v>
       </c>
       <c r="I35">
         <v>16881</v>
       </c>
       <c r="J35">
-        <v>14.4060419866871</v>
+        <v>2.93456410839923</v>
       </c>
       <c r="K35" s="1">
-        <v>6.0304250482090496E-10</v>
+        <v>8.8549612087262995E-11</v>
       </c>
       <c r="L35" s="1">
-        <v>1.0050920064899099E-10</v>
+        <v>2.2138098873944901E-11</v>
       </c>
       <c r="M35" s="1">
-        <v>9.03310537478274E-9</v>
+        <v>1.9896266076583401E-9</v>
       </c>
       <c r="N35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1">
-        <v>2.3646563907772001E-9</v>
+        <v>1.6921826568576E-12</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G36">
         <v>189</v>
       </c>
       <c r="H36">
-        <v>1129</v>
+        <v>391</v>
       </c>
       <c r="I36">
         <v>16881</v>
       </c>
       <c r="J36">
-        <v>3.00625641458236</v>
+        <v>5.9392684610075897</v>
       </c>
       <c r="K36" s="1">
-        <v>7.4723113130392704E-7</v>
+        <v>5.3473581118623697E-10</v>
       </c>
       <c r="L36" s="1">
-        <v>1.06747345640799E-7</v>
+        <v>1.0050920064899099E-10</v>
       </c>
       <c r="M36" s="1">
-        <v>9.5937487854389193E-6</v>
+        <v>9.03310537478274E-9</v>
       </c>
       <c r="N36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
         <v>32</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="E37" s="1">
-        <v>2.18734939481848E-8</v>
+        <v>1.9084025439681801E-12</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G37">
         <v>189</v>
       </c>
       <c r="H37">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I37">
         <v>16881</v>
       </c>
       <c r="J37">
-        <v>12.129531648050101</v>
+        <v>14.4060419866871</v>
       </c>
       <c r="K37" s="1">
-        <v>6.9120002615940996E-6</v>
+        <v>6.0304250482090496E-10</v>
       </c>
       <c r="L37" s="1">
-        <v>8.6400301095330204E-7</v>
+        <v>1.0050920064899099E-10</v>
       </c>
       <c r="M37" s="1">
-        <v>7.7650903516056206E-5</v>
+        <v>9.03310537478274E-9</v>
       </c>
       <c r="N37" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
         <v>32</v>
       </c>
       <c r="C38">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>3.5</v>
+        <v>19</v>
       </c>
       <c r="E38" s="1">
-        <v>6.7614638143721996E-7</v>
+        <v>2.3646563907772001E-9</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G38">
         <v>189</v>
       </c>
       <c r="H38">
-        <v>29</v>
+        <v>1129</v>
       </c>
       <c r="I38">
         <v>16881</v>
       </c>
       <c r="J38">
-        <v>21.559386973180001</v>
+        <v>3.00625641458236</v>
       </c>
       <c r="K38" s="1">
-        <v>2.1363950459873899E-4</v>
+        <v>7.4723113130392704E-7</v>
       </c>
       <c r="L38" s="1">
-        <v>2.3740250726017899E-5</v>
-      </c>
-      <c r="M38">
-        <v>2.1336174703129999E-3</v>
+        <v>1.06747345640799E-7</v>
+      </c>
+      <c r="M38" s="1">
+        <v>9.5937487854389193E-6</v>
       </c>
       <c r="N38" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -2956,655 +2968,655 @@
         <v>5.5</v>
       </c>
       <c r="E39" s="1">
-        <v>1.08230324330018E-6</v>
+        <v>2.18734939481848E-8</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G39">
         <v>189</v>
       </c>
       <c r="H39">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="I39">
         <v>16881</v>
       </c>
       <c r="J39">
-        <v>8.0532136351808408</v>
+        <v>12.129531648050101</v>
       </c>
       <c r="K39" s="1">
-        <v>3.41949531872498E-4</v>
+        <v>6.9120002615940996E-6</v>
       </c>
       <c r="L39" s="1">
-        <v>3.4200782488285597E-5</v>
-      </c>
-      <c r="M39">
-        <v>3.0737412109725099E-3</v>
+        <v>8.6400301095330204E-7</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7.7650903516056206E-5</v>
       </c>
       <c r="N39" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C40">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="E40" s="1">
-        <v>8.7745228096401994E-33</v>
+        <v>6.7614638143721996E-7</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="G40">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="H40">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="I40">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J40">
-        <v>17.1470674486803</v>
+        <v>21.559386973180001</v>
       </c>
       <c r="K40" s="1">
-        <v>7.5460896162905704E-31</v>
+        <v>2.1363950459873899E-4</v>
       </c>
       <c r="L40" s="1">
-        <v>7.5460896162905704E-31</v>
-      </c>
-      <c r="M40" s="1">
-        <v>6.0544207386517402E-29</v>
+        <v>2.3740250726017899E-5</v>
+      </c>
+      <c r="M40">
+        <v>2.1336174703129999E-3</v>
       </c>
       <c r="N40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="E41" s="1">
-        <v>9.5046094606717998E-30</v>
+        <v>1.08230324330018E-6</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="G41">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="H41">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I41">
-        <v>6879</v>
+        <v>16881</v>
       </c>
       <c r="J41">
-        <v>38.216666666666598</v>
+        <v>8.0532136351808408</v>
       </c>
       <c r="K41" s="1">
-        <v>8.1739641361777504E-28</v>
+        <v>3.41949531872498E-4</v>
       </c>
       <c r="L41" s="1">
-        <v>4.0869820680888698E-28</v>
-      </c>
-      <c r="M41" s="1">
-        <v>3.2790902639317697E-26</v>
+        <v>3.4200782488285597E-5</v>
+      </c>
+      <c r="M41">
+        <v>3.0737412109725099E-3</v>
       </c>
       <c r="N41" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1">
-        <v>1.8945760838794499E-18</v>
+        <v>8.7745228096401994E-33</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G42">
         <v>110</v>
       </c>
       <c r="H42">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="I42">
         <v>6879</v>
       </c>
       <c r="J42">
-        <v>38.065612648221297</v>
+        <v>17.1470674486803</v>
       </c>
       <c r="K42" s="1">
-        <v>1.62933543213633E-16</v>
+        <v>7.5460896162905704E-31</v>
       </c>
       <c r="L42" s="1">
-        <v>5.4311181071210997E-17</v>
+        <v>7.5460896162905704E-31</v>
       </c>
       <c r="M42" s="1">
-        <v>4.3575249929227397E-15</v>
+        <v>6.0544207386517402E-29</v>
       </c>
       <c r="N42" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="E43" s="1">
-        <v>4.4530247686976603E-12</v>
+        <v>9.5046094606717998E-30</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G43">
         <v>110</v>
       </c>
       <c r="H43">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I43">
         <v>6879</v>
       </c>
       <c r="J43">
-        <v>17.297292069632402</v>
+        <v>38.216666666666598</v>
       </c>
       <c r="K43" s="1">
-        <v>3.8295744353433701E-10</v>
+        <v>8.1739641361777504E-28</v>
       </c>
       <c r="L43" s="1">
-        <v>9.5740032526999705E-11</v>
+        <v>4.0869820680888698E-28</v>
       </c>
       <c r="M43" s="1">
-        <v>7.6814677260034595E-9</v>
+        <v>3.2790902639317697E-26</v>
       </c>
       <c r="N43" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="E44" s="1">
-        <v>1.02315909463305E-11</v>
+        <v>1.8945760838794499E-18</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="G44">
         <v>110</v>
       </c>
       <c r="H44">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I44">
         <v>6879</v>
       </c>
       <c r="J44">
-        <v>23.7206896551724</v>
+        <v>38.065612648221297</v>
       </c>
       <c r="K44" s="1">
-        <v>8.79917028129284E-10</v>
+        <v>1.62933543213633E-16</v>
       </c>
       <c r="L44" s="1">
-        <v>1.7598336427688599E-10</v>
+        <v>5.4311181071210997E-17</v>
       </c>
       <c r="M44" s="1">
-        <v>1.4119595505936201E-8</v>
+        <v>4.3575249929227397E-15</v>
       </c>
       <c r="N44" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D45">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="E45" s="1">
-        <v>1.9976222657498198E-9</v>
+        <v>4.4530247686976603E-12</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="G45">
         <v>110</v>
       </c>
       <c r="H45">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="I45">
         <v>6879</v>
       </c>
       <c r="J45">
-        <v>5.1703292770221898</v>
+        <v>17.297292069632402</v>
       </c>
       <c r="K45" s="1">
-        <v>1.7179550237944501E-7</v>
+        <v>3.8295744353433701E-10</v>
       </c>
       <c r="L45" s="1">
-        <v>2.8632585809080801E-8</v>
+        <v>9.5740032526999705E-11</v>
       </c>
       <c r="M45" s="1">
-        <v>2.2972656056122999E-6</v>
+        <v>7.6814677260034595E-9</v>
       </c>
       <c r="N45" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="E46" s="1">
-        <v>4.9106232000136401E-9</v>
+        <v>1.02315909463305E-11</v>
       </c>
       <c r="F46" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G46">
         <v>110</v>
       </c>
       <c r="H46">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I46">
         <v>6879</v>
       </c>
       <c r="J46">
-        <v>8.6684068406840602</v>
+        <v>23.7206896551724</v>
       </c>
       <c r="K46" s="1">
-        <v>4.2231351060628602E-7</v>
+        <v>8.79917028129284E-10</v>
       </c>
       <c r="L46" s="1">
-        <v>6.0330513600167597E-8</v>
+        <v>1.7598336427688599E-10</v>
       </c>
       <c r="M46" s="1">
-        <v>4.8404714400134503E-6</v>
+        <v>1.4119595505936201E-8</v>
       </c>
       <c r="N46" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="E47" s="1">
-        <v>7.67183148323977E-8</v>
+        <v>1.9976222657498198E-9</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G47">
         <v>110</v>
       </c>
       <c r="H47">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="I47">
         <v>6879</v>
       </c>
       <c r="J47">
-        <v>10.2671641791044</v>
+        <v>5.1703292770221898</v>
       </c>
       <c r="K47" s="1">
-        <v>6.5977535615990803E-6</v>
+        <v>1.7179550237944501E-7</v>
       </c>
       <c r="L47" s="1">
-        <v>8.2472188444827503E-7</v>
+        <v>2.8632585809080801E-8</v>
       </c>
       <c r="M47" s="1">
-        <v>6.6169546542943006E-5</v>
+        <v>2.2972656056122999E-6</v>
       </c>
       <c r="N47" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E48" s="1">
-        <v>1.11860180213759E-7</v>
+        <v>4.9106232000136401E-9</v>
       </c>
       <c r="F48" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G48">
         <v>110</v>
       </c>
       <c r="H48">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="I48">
         <v>6879</v>
       </c>
       <c r="J48">
-        <v>11.799313893653499</v>
+        <v>8.6684068406840602</v>
       </c>
       <c r="K48" s="1">
-        <v>9.6199297660026705E-6</v>
+        <v>4.2231351060628602E-7</v>
       </c>
       <c r="L48" s="1">
-        <v>1.06888616648703E-6</v>
+        <v>6.0330513600167597E-8</v>
       </c>
       <c r="M48" s="1">
-        <v>8.5759471497215298E-5</v>
+        <v>4.8404714400134503E-6</v>
       </c>
       <c r="N48" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="E49" s="1">
-        <v>6.2868194885176698E-7</v>
+        <v>7.67183148323977E-8</v>
       </c>
       <c r="F49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G49">
         <v>110</v>
       </c>
       <c r="H49">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I49">
         <v>6879</v>
       </c>
       <c r="J49">
-        <v>15.160330578512299</v>
+        <v>10.2671641791044</v>
       </c>
       <c r="K49" s="1">
-        <v>5.4065203019315597E-5</v>
+        <v>6.5977535615990803E-6</v>
       </c>
       <c r="L49" s="1">
-        <v>5.4066647601252003E-6</v>
+        <v>8.2472188444827503E-7</v>
       </c>
       <c r="M49" s="1">
-        <v>4.3379054470771901E-4</v>
+        <v>6.6169546542943006E-5</v>
       </c>
       <c r="N49" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C50">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E50" s="1">
-        <v>3.28475785918707E-22</v>
+        <v>1.11860180213759E-7</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="G50">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="H50">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I50">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J50">
-        <v>25.041390728476799</v>
+        <v>11.799313893653499</v>
       </c>
       <c r="K50" s="1">
-        <v>7.8505712834571098E-20</v>
+        <v>9.6199297660026705E-6</v>
       </c>
       <c r="L50" s="1">
-        <v>7.8834188620489801E-20</v>
+        <v>1.06888616648703E-6</v>
       </c>
       <c r="M50" s="1">
-        <v>4.8285940530049999E-18</v>
+        <v>8.5759471497215298E-5</v>
       </c>
       <c r="N50" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C51">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>1.2921344625686499E-19</v>
+        <v>6.2868194885176698E-7</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="G51">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="H51">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I51">
-        <v>9075</v>
+        <v>6879</v>
       </c>
       <c r="J51">
-        <v>27.613209235725702</v>
+        <v>15.160330578512299</v>
       </c>
       <c r="K51" s="1">
-        <v>3.0882013655390701E-17</v>
+        <v>5.4065203019315597E-5</v>
       </c>
       <c r="L51" s="1">
-        <v>1.55056135508238E-17</v>
+        <v>5.4066647601252003E-6</v>
       </c>
       <c r="M51" s="1">
-        <v>9.4971882998795803E-16</v>
+        <v>4.3379054470771901E-4</v>
       </c>
       <c r="N51" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
         <v>35</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1">
-        <v>2.2035265749170502E-17</v>
+        <v>3.28475785918707E-22</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>151</v>
       </c>
       <c r="H52">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="I52">
         <v>9075</v>
       </c>
       <c r="J52">
-        <v>28.1715645695364</v>
+        <v>25.041390728476799</v>
       </c>
       <c r="K52" s="1">
-        <v>5.2664285140517499E-15</v>
+        <v>7.8505712834571098E-20</v>
       </c>
       <c r="L52" s="1">
-        <v>1.7628212599336399E-15</v>
+        <v>7.8834188620489801E-20</v>
       </c>
       <c r="M52" s="1">
-        <v>1.0797280217093499E-13</v>
+        <v>4.8285940530049999E-18</v>
       </c>
       <c r="N52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
         <v>35</v>
       </c>
       <c r="C53">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="E53" s="1">
-        <v>6.8260571673326398E-17</v>
+        <v>1.2921344625686499E-19</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>151</v>
       </c>
       <c r="H53">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I53">
         <v>9075</v>
       </c>
       <c r="J53">
-        <v>37.2043519394512</v>
+        <v>27.613209235725702</v>
       </c>
       <c r="K53" s="1">
-        <v>2.65343302885412E-14</v>
+        <v>3.0882013655390701E-17</v>
       </c>
       <c r="L53" s="1">
-        <v>4.09563430039958E-15</v>
+        <v>1.55056135508238E-17</v>
       </c>
       <c r="M53" s="1">
-        <v>2.5085760089947398E-13</v>
+        <v>9.4971882998795803E-16</v>
       </c>
       <c r="N53" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
         <v>35</v>
@@ -3616,39 +3628,39 @@
         <v>7.5</v>
       </c>
       <c r="E54" s="1">
-        <v>6.3407993050450599E-16</v>
+        <v>2.2035265749170502E-17</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G54">
         <v>151</v>
       </c>
       <c r="H54">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I54">
         <v>9075</v>
       </c>
       <c r="J54">
-        <v>23.115129903209301</v>
+        <v>28.1715645695364</v>
       </c>
       <c r="K54" s="1">
-        <v>1.5920598173124699E-13</v>
+        <v>5.2664285140517499E-15</v>
       </c>
       <c r="L54" s="1">
-        <v>3.04358366642163E-14</v>
+        <v>1.7628212599336399E-15</v>
       </c>
       <c r="M54" s="1">
-        <v>1.8641949956832401E-12</v>
+        <v>1.0797280217093499E-13</v>
       </c>
       <c r="N54" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
         <v>35</v>
@@ -3660,7 +3672,7 @@
         <v>6.5</v>
       </c>
       <c r="E55" s="1">
-        <v>1.1357120343193301E-15</v>
+        <v>6.8260571673326398E-17</v>
       </c>
       <c r="F55" t="s">
         <v>49</v>
@@ -3669,205 +3681,293 @@
         <v>151</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I55">
         <v>9075</v>
       </c>
       <c r="J55">
-        <v>31.251655629139002</v>
+        <v>37.2043519394512</v>
       </c>
       <c r="K55" s="1">
-        <v>2.6534330288541201E-13</v>
+        <v>2.65343302885412E-14</v>
       </c>
       <c r="L55" s="1">
-        <v>4.5428481372773303E-14</v>
+        <v>4.09563430039958E-15</v>
       </c>
       <c r="M55" s="1">
-        <v>2.7824944840823599E-12</v>
+        <v>2.5085760089947398E-13</v>
       </c>
       <c r="N55" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
         <v>35</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="E56" s="1">
-        <v>3.1276724142002198E-15</v>
+        <v>6.3407993050450599E-16</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G56">
         <v>151</v>
       </c>
       <c r="H56">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I56">
         <v>9075</v>
       </c>
       <c r="J56">
-        <v>44.072847682119203</v>
+        <v>23.115129903209301</v>
       </c>
       <c r="K56" s="1">
-        <v>7.4296124807915405E-13</v>
+        <v>1.5920598173124699E-13</v>
       </c>
       <c r="L56" s="1">
-        <v>9.3830172426006797E-14</v>
+        <v>3.04358366642163E-14</v>
       </c>
       <c r="M56" s="1">
-        <v>5.7470980610929198E-12</v>
+        <v>1.8641949956832401E-12</v>
       </c>
       <c r="N56" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D57">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="E57" s="1">
-        <v>3.1276724142002198E-15</v>
+        <v>1.1357120343193301E-15</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G57">
         <v>151</v>
       </c>
       <c r="H57">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I57">
         <v>9075</v>
       </c>
       <c r="J57">
-        <v>44.072847682119203</v>
+        <v>31.251655629139002</v>
       </c>
       <c r="K57" s="1">
-        <v>7.4296124807915405E-13</v>
+        <v>2.6534330288541201E-13</v>
       </c>
       <c r="L57" s="1">
-        <v>9.3830172426006797E-14</v>
+        <v>4.5428481372773303E-14</v>
       </c>
       <c r="M57" s="1">
-        <v>5.7470980610929198E-12</v>
+        <v>2.7824944840823599E-12</v>
       </c>
       <c r="N57" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
       </c>
       <c r="C58">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="E58" s="1">
-        <v>5.4409230419530803E-15</v>
+        <v>3.1276724142002198E-15</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G58">
         <v>151</v>
       </c>
       <c r="H58">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="I58">
         <v>9075</v>
       </c>
       <c r="J58">
-        <v>10.4304635761589</v>
+        <v>44.072847682119203</v>
       </c>
       <c r="K58" s="1">
-        <v>1.30018218413852E-12</v>
+        <v>7.4296124807915405E-13</v>
       </c>
       <c r="L58" s="1">
-        <v>1.4509128111874801E-13</v>
+        <v>9.3830172426006797E-14</v>
       </c>
       <c r="M58" s="1">
-        <v>8.8868409685233704E-12</v>
+        <v>5.7470980610929198E-12</v>
       </c>
       <c r="N58" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
         <v>35</v>
       </c>
       <c r="C59">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="E59" s="1">
-        <v>1.7825389568984799E-14</v>
+        <v>3.1276724142002198E-15</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G59">
         <v>151</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I59">
         <v>9075</v>
       </c>
       <c r="J59">
+        <v>44.072847682119203</v>
+      </c>
+      <c r="K59" s="1">
+        <v>7.4296124807915405E-13</v>
+      </c>
+      <c r="L59" s="1">
+        <v>9.3830172426006797E-14</v>
+      </c>
+      <c r="M59" s="1">
+        <v>5.7470980610929198E-12</v>
+      </c>
+      <c r="N59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60">
+        <v>21</v>
+      </c>
+      <c r="D60">
+        <v>10.5</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5.4409230419530803E-15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60">
+        <v>151</v>
+      </c>
+      <c r="H60">
+        <v>121</v>
+      </c>
+      <c r="I60">
+        <v>9075</v>
+      </c>
+      <c r="J60">
+        <v>10.4304635761589</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1.30018218413852E-12</v>
+      </c>
+      <c r="L60" s="1">
+        <v>1.4509128111874801E-13</v>
+      </c>
+      <c r="M60" s="1">
+        <v>8.8868409685233704E-12</v>
+      </c>
+      <c r="N60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>6.5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1.7825389568984799E-14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61">
+        <v>151</v>
+      </c>
+      <c r="H61">
+        <v>30</v>
+      </c>
+      <c r="I61">
+        <v>9075</v>
+      </c>
+      <c r="J61">
         <v>26.0430463576158</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K61" s="1">
         <v>4.2720271764551399E-12</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L61" s="1">
         <v>4.27809349655637E-13</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M61" s="1">
         <v>2.62033226664077E-11</v>
       </c>
-      <c r="N59" t="s">
-        <v>132</v>
+      <c r="N61" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N59">
+  <sortState ref="A2:N61">
     <sortCondition ref="N1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DAVID/E2F.DAVID_toJoin.xlsx
+++ b/DAVID/E2F.DAVID_toJoin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\DAVID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DEC9C62-191D-40B8-B4BC-D83EF232C462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52971849-E26E-4447-B671-0CC93F4EB2EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="6900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E2F.DAVID" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1271,7 +1271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
